--- a/SCRUM Files/Sprint 2 Burndown Chart.xlsx
+++ b/SCRUM Files/Sprint 2 Burndown Chart.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="24426"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive\Documents\csce315\CSCE-315-Project2-local\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="10780"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="10785"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
   <si>
     <t>Project 2 Group 4</t>
   </si>
@@ -87,6 +89,12 @@
     <t>Identify All valid moves</t>
   </si>
   <si>
+    <t>randomly select random valid move  (minimax tree)</t>
+  </si>
+  <si>
+    <t>Look ahead one move in a tree</t>
+  </si>
+  <si>
     <t>implement minimax tree</t>
   </si>
   <si>
@@ -96,6 +104,15 @@
     <t>alpha-beta pruning all level</t>
   </si>
   <si>
+    <t>Make an easy mode</t>
+  </si>
+  <si>
+    <t>make a medium mode</t>
+  </si>
+  <si>
+    <t>make a hard mode</t>
+  </si>
+  <si>
     <t>board evaluation function to determine a winner or loser</t>
   </si>
   <si>
@@ -196,24 +213,12 @@
   </si>
   <si>
     <t>total hours left</t>
-  </si>
-  <si>
-    <t>intelligently select a valid move  (minimax tree)</t>
-  </si>
-  <si>
-    <t>Look ahead in a tree</t>
-  </si>
-  <si>
-    <t>Make modes with varying difficulty?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -243,11 +248,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -263,6 +267,1071 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Sprint 2 Burndown Chart</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$G$4:$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Initial</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Meeting 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Meeting 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Meeting 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Final</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$5:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F2B0-45FD-BB4B-E03E6A2C29E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="424512360"/>
+        <c:axId val="424511704"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="424512360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Progress</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="424511704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="424511704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hours Left</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="424512360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>640556</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88106</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>345281</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>116681</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{826CAAFC-C2A1-4E8C-A8A8-693A06F9D08E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -308,7 +1377,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -360,7 +1429,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -554,7 +1623,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -562,29 +1631,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="49.1640625" customWidth="1"/>
-    <col min="4" max="4" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" customWidth="1"/>
+    <col min="3" max="3" width="49.1328125" customWidth="1"/>
+    <col min="4" max="4" width="19.46484375" customWidth="1"/>
+    <col min="6" max="6" width="13.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B1" s="1"/>
       <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -593,39 +1662,39 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="J4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="K4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B5">
         <v>1.1000000000000001</v>
       </c>
@@ -636,25 +1705,25 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G5">
         <v>59</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="K5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B6">
         <v>1.2</v>
       </c>
@@ -665,7 +1734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>1.3</v>
       </c>
@@ -676,7 +1745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>1.4</v>
       </c>
@@ -687,7 +1756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>1.5</v>
       </c>
@@ -698,7 +1767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B10">
         <v>1.6</v>
       </c>
@@ -709,7 +1778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B11">
         <v>1.7</v>
       </c>
@@ -720,7 +1789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B12">
         <v>1.8</v>
       </c>
@@ -731,7 +1800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B13">
         <v>1.9</v>
       </c>
@@ -742,7 +1811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B14" s="2">
         <v>1.1000000000000001</v>
       </c>
@@ -753,7 +1822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B15">
         <v>1.1100000000000001</v>
       </c>
@@ -764,7 +1833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B16">
         <v>1.1200000000000001</v>
       </c>
@@ -775,7 +1844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B17">
         <v>1.1299999999999999</v>
       </c>
@@ -786,7 +1855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B18">
         <v>1.1399999999999999</v>
       </c>
@@ -797,7 +1866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B19">
         <v>1.1499999999999999</v>
       </c>
@@ -808,7 +1877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B20">
         <v>1.1599999999999999</v>
       </c>
@@ -819,7 +1888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B21">
         <v>1.17</v>
       </c>
@@ -830,15 +1899,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B24">
         <v>2.1</v>
       </c>
@@ -849,320 +1918,338 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B25">
         <v>2.2000000000000002</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="D25">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B26">
         <v>2.2999999999999998</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B27">
         <v>2.4</v>
       </c>
       <c r="C27" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D27">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B28">
         <v>2.5</v>
       </c>
       <c r="C28" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D28">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B29">
         <v>2.6</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D29">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B30">
         <v>2.7</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="D30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="B31" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B31">
         <v>2.8</v>
       </c>
       <c r="C31" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B32">
         <v>2.9</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>47</v>
-      </c>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B33" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B34">
+        <v>2.11</v>
+      </c>
+      <c r="C34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="B35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B37">
         <v>3.1</v>
       </c>
-      <c r="C35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35">
+      <c r="C37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="B36">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B38">
         <v>3.2</v>
       </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="B37">
-        <v>3.3</v>
-      </c>
-      <c r="C37" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="B38">
-        <v>3.4</v>
-      </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B39">
+        <v>3.3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B40">
+        <v>3.4</v>
+      </c>
+      <c r="C40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B41">
         <v>3.5</v>
       </c>
-      <c r="C39" t="s">
-        <v>30</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="B40">
+      <c r="C41" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B42">
         <v>3.6</v>
       </c>
-      <c r="C40" t="s">
-        <v>31</v>
-      </c>
-      <c r="D40">
+      <c r="C42" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="B41">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B43">
         <v>3.7</v>
       </c>
-      <c r="C41" t="s">
-        <v>32</v>
-      </c>
-      <c r="D41">
+      <c r="C43" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="B42">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B44">
         <v>3.8</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C44" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B47">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C47" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B48">
+        <v>4.2</v>
+      </c>
+      <c r="C48" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B49">
+        <v>4.3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>41</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B50">
+        <v>4.3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>42</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B51">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C51" t="s">
+        <v>43</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B52">
+        <v>4.5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>44</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B53">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C53" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B54">
+        <v>4.7</v>
+      </c>
+      <c r="C54" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B55">
+        <v>4.8</v>
+      </c>
+      <c r="C55" t="s">
+        <v>47</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C57" t="s">
+        <v>48</v>
+      </c>
+      <c r="D57">
+        <f>SUM(D5:D21,D24:D34,D37:D44,D47:D55)</f>
         <v>33</v>
       </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="B45">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C45" t="s">
-        <v>34</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="B46">
-        <v>4.2</v>
-      </c>
-      <c r="C46" t="s">
-        <v>35</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="B47">
-        <v>4.3</v>
-      </c>
-      <c r="C47" t="s">
-        <v>36</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="B48">
-        <v>4.3</v>
-      </c>
-      <c r="C48" t="s">
-        <v>37</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4">
-      <c r="B49">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C49" t="s">
-        <v>38</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4">
-      <c r="B50">
-        <v>4.5</v>
-      </c>
-      <c r="C50" t="s">
-        <v>39</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4">
-      <c r="B51">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C51" t="s">
-        <v>40</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4">
-      <c r="B52">
-        <v>4.7</v>
-      </c>
-      <c r="C52" t="s">
-        <v>41</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4">
-      <c r="B53">
-        <v>4.8</v>
-      </c>
-      <c r="C53" t="s">
-        <v>42</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4">
-      <c r="C55" t="s">
-        <v>43</v>
-      </c>
-      <c r="D55">
-        <f>SUM(D5:D21,D24:D32,D35:D42,D45:D53)</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4">
-      <c r="C56" t="s">
-        <v>57</v>
-      </c>
-      <c r="D56">
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C58" t="s">
+        <v>62</v>
+      </c>
+      <c r="D58">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>